--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,85 +40,91 @@
     <t>name</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
@@ -127,7 +133,7 @@
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>stop</t>
@@ -142,21 +148,36 @@
     <t>buying</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -166,124 +187,139 @@
     <t>join</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>nice</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -641,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -760,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9130434782608695</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9148936170212766</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -960,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8664383561643836</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.9014084507042254</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,16 +1067,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.900523560209424</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>344</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,10 +1099,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -1128,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8839285714285714</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="M11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,16 +1217,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8773584905660378</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.76</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8658536585365854</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.746031746031746</v>
+        <v>0.775</v>
       </c>
       <c r="C14">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.88125</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7297297297297297</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7151162790697675</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C17">
-        <v>369</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>369</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.8076923076923077</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7058823529411765</v>
+        <v>0.7306201550387597</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7037037037037037</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,16 +1617,16 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,31 +1664,31 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L21">
+        <v>51</v>
+      </c>
+      <c r="M21">
+        <v>51</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>12</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="L21">
-        <v>37</v>
-      </c>
-      <c r="M21">
-        <v>37</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1696,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6610169491525424</v>
+        <v>0.6875</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7573221757322176</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6308724832214765</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C23">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,31 +1814,31 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>51</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24">
+        <v>0.76</v>
+      </c>
+      <c r="L24">
+        <v>38</v>
+      </c>
+      <c r="M24">
+        <v>38</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24">
-        <v>0.7448979591836735</v>
-      </c>
-      <c r="L24">
-        <v>219</v>
-      </c>
-      <c r="M24">
-        <v>220</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5600000000000001</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1896,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5535714285714286</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1914,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7230769230769231</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="M26">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1946,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5454545454545454</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7127659574468085</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +1996,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5128205128205128</v>
+        <v>0.6</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +2046,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4909090909090909</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,13 +2096,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4285714285714285</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2078,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6741573033707865</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,13 +2146,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2128,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6575342465753424</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L31">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="M31">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2152,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,7 +2196,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3888888888888889</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C32">
         <v>35</v>
@@ -2178,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2202,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2210,13 +2246,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3650793650793651</v>
+        <v>0.45</v>
       </c>
       <c r="C33">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2228,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.62</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2252,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2260,13 +2296,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3136729222520107</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C34">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2278,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.5777777777777777</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2302,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2310,13 +2346,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.16</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2328,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.5757575757575758</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2352,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2360,37 +2396,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.07167235494880546</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.55</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2402,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2410,37 +2446,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.02133850630455868</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C37">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3027</v>
+        <v>236</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.543859649122807</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2452,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2460,37 +2496,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01987899740708729</v>
+        <v>0.09556313993174062</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E38">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1134</v>
+        <v>265</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.5384615384615384</v>
+        <v>0.59375</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2502,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2510,37 +2546,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01220084467386204</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2105</v>
+        <v>216</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.4426229508196721</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2552,21 +2588,45 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.03882657463330457</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>47</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>0.96</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1114</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.421875</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2578,21 +2638,45 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.03273905996758509</v>
+      </c>
+      <c r="C41">
+        <v>101</v>
+      </c>
+      <c r="D41">
+        <v>123</v>
+      </c>
+      <c r="E41">
+        <v>0.18</v>
+      </c>
+      <c r="F41">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2984</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.3728813559322034</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2608,95 +2692,167 @@
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.02320185614849188</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>0.2</v>
+      </c>
+      <c r="F42">
+        <v>0.8</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>842</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.25</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>31</v>
       </c>
-      <c r="M42">
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.0222117202268431</v>
+      </c>
+      <c r="C43">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>74</v>
+      </c>
+      <c r="E43">
+        <v>0.36</v>
+      </c>
+      <c r="F43">
+        <v>0.64</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2069</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
+        <v>28</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>31</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.1297297297297297</v>
-      </c>
-      <c r="L43">
-        <v>24</v>
-      </c>
-      <c r="M43">
-        <v>24</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>161</v>
-      </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.007033248081841432</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>95</v>
+      </c>
+      <c r="E44">
+        <v>0.77</v>
+      </c>
+      <c r="F44">
+        <v>0.23</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3106</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.07166123778501629</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M44">
         <v>23</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>285</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.07163323782234957</v>
+        <v>0.3145161290322581</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2708,33 +2864,293 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>324</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.01757689893283114</v>
+        <v>0.2710280373831775</v>
       </c>
       <c r="L46">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N46">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O46">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3130</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47">
+        <v>0.168141592920354</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K48">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49">
+        <v>0.09120521172638436</v>
+      </c>
+      <c r="L49">
+        <v>28</v>
+      </c>
+      <c r="M49">
+        <v>29</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K51">
+        <v>0.06490384615384616</v>
+      </c>
+      <c r="L51">
+        <v>27</v>
+      </c>
+      <c r="M51">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>0.06321839080459771</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>23</v>
+      </c>
+      <c r="N52">
+        <v>0.96</v>
+      </c>
+      <c r="O52">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53">
+        <v>0.02335928809788654</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>23</v>
+      </c>
+      <c r="N53">
+        <v>0.91</v>
+      </c>
+      <c r="O53">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54">
+        <v>0.0229631959735766</v>
+      </c>
+      <c r="L54">
+        <v>73</v>
+      </c>
+      <c r="M54">
+        <v>95</v>
+      </c>
+      <c r="N54">
+        <v>0.77</v>
+      </c>
+      <c r="O54">
+        <v>0.23</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55">
+        <v>0.01288167938931298</v>
+      </c>
+      <c r="L55">
+        <v>27</v>
+      </c>
+      <c r="M55">
+        <v>74</v>
+      </c>
+      <c r="N55">
+        <v>0.36</v>
+      </c>
+      <c r="O55">
+        <v>0.64</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56">
+        <v>0.007318695941450432</v>
+      </c>
+      <c r="L56">
+        <v>22</v>
+      </c>
+      <c r="M56">
+        <v>123</v>
+      </c>
+      <c r="N56">
+        <v>0.18</v>
+      </c>
+      <c r="O56">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2984</v>
       </c>
     </row>
   </sheetData>
